--- a/20918-홍영준-202305-A.xlsx
+++ b/20918-홍영준-202305-A.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="제4작업" sheetId="4" r:id="rId1"/>
-    <sheet name="제1작업" sheetId="1" r:id="rId2"/>
-    <sheet name="제2작업" sheetId="2" r:id="rId3"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId4"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="컬러">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -210,40 +213,50 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EW150 개수</t>
-  </si>
-  <si>
-    <t>BR147 개수</t>
-  </si>
-  <si>
-    <t>RR251 개수</t>
-  </si>
-  <si>
-    <t>NY239 개수</t>
-  </si>
-  <si>
-    <t>EY145 개수</t>
-  </si>
-  <si>
-    <t>NR236 개수</t>
-  </si>
-  <si>
-    <t>RW143 개수</t>
-  </si>
-  <si>
-    <t>ER128 개수</t>
-  </si>
-  <si>
     <t>전체 개수</t>
+  </si>
+  <si>
+    <t>판매가격(원) 전체평균</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트 개수</t>
+  </si>
+  <si>
+    <t>옐로우 개수</t>
+  </si>
+  <si>
+    <t>로즈 개수</t>
+  </si>
+  <si>
+    <t>화이트 평균</t>
+  </si>
+  <si>
+    <t>옐로우 평균</t>
+  </si>
+  <si>
+    <t>로즈 평균</t>
+  </si>
+  <si>
+    <t>전체 평균</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0&quot;대&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;위&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -299,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -552,32 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,115 +593,109 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,7 +703,14 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1271,6 +1259,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2009905071"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1902,7 +1891,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1910,110 +1899,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.50839</cdr:x>
-      <cdr:y>0.1181</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.63423</cdr:x>
-      <cdr:y>0.1887</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4731270" y="718279"/>
-          <a:ext cx="1171107" cy="429405"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 76500"/>
-            <a:gd name="adj2" fmla="val -10227"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>최대 판매가격</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2097,7 +1982,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>659763</xdr:colOff>
+      <xdr:colOff>561712</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
@@ -2144,6 +2029,110 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50839</cdr:x>
+      <cdr:y>0.1181</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63423</cdr:x>
+      <cdr:y>0.1887</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4731270" y="718279"/>
+          <a:ext cx="1171107" cy="429405"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76500"/>
+            <a:gd name="adj2" fmla="val -10227"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대 판매가격</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2412,18 +2401,17 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="H12" activeCellId="20" sqref="C4 G4 H4 C5 G5 H5 C6 G6 H6 C7 G7 H7 C10 G10 H10 C11 G11 H11 C12 G12 H12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9.125" style="1" bestFit="1" customWidth="1"/>
@@ -2436,31 +2424,31 @@
     <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2477,20 +2465,26 @@
       <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="10">
         <v>346</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="10">
         <v>27000</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="19">
         <v>40</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="5" t="str">
+        <f>IF(MID(B5,3,1)="1","회원","비회원")</f>
+        <v>회원</v>
+      </c>
+      <c r="J5" s="33">
+        <f>_xlfn.RANK.EQ(F5,$F$5:$F$12,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2508,14 +2502,20 @@
       <c r="G6" s="3">
         <v>41000</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="20">
         <v>20</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="2" t="str">
+        <f t="shared" ref="I6:I12" si="0">IF(MID(B6,3,1)="1","회원","비회원")</f>
+        <v>회원</v>
+      </c>
+      <c r="J6" s="34">
+        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(F6,$F$5:$F$12,0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2533,14 +2533,20 @@
       <c r="G7" s="3">
         <v>39000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="20">
         <v>20</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>비회원</v>
+      </c>
+      <c r="J7" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2558,14 +2564,20 @@
       <c r="G8" s="3">
         <v>98000</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="20">
         <v>50</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>비회원</v>
+      </c>
+      <c r="J8" s="34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2583,14 +2595,20 @@
       <c r="G9" s="3">
         <v>55000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="20">
         <v>30</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>회원</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2608,14 +2626,20 @@
       <c r="G10" s="3">
         <v>63000</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="20">
         <v>40</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>비회원</v>
+      </c>
+      <c r="J10" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2633,78 +2657,93 @@
       <c r="G11" s="3">
         <v>71000</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="20">
         <v>20</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>회원</v>
+      </c>
+      <c r="J11" s="34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="12">
         <v>150</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="12">
         <v>34000</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="21">
         <v>60</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>회원</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="9">
         <f>COUNTIF(컬러,E6)</f>
         <v>4</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="42">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26">
         <f>MAX(G5:G12)</f>
         <v>98000</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="25" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="7">
+        <f>ROUND(DAVERAGE(B4:H12,G4,D4:D5),-3)</f>
+        <v>39000</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="13" t="e">
-        <f>VLOOKUP(H14,C5:C12,4,TRUE)</f>
-        <v>#REF!</v>
+      <c r="J14" s="8">
+        <f>VLOOKUP(H14,C5:F12,4,FALSE)</f>
+        <v>346</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2718,7 +2757,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$G5&gt;=60000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2735,67 +2774,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="3">
         <v>346</v>
       </c>
-      <c r="G3" s="18">
-        <v>27000</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="G3" s="3">
+        <v>31000</v>
+      </c>
+      <c r="H3" s="20">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2813,12 +2857,12 @@
       <c r="G4" s="3">
         <v>41000</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2836,12 +2880,12 @@
       <c r="G5" s="3">
         <v>39000</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2859,12 +2903,12 @@
       <c r="G6" s="3">
         <v>98000</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="20">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2882,12 +2926,12 @@
       <c r="G7" s="3">
         <v>55000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="20">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2905,12 +2949,12 @@
       <c r="G8" s="3">
         <v>63000</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="20">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2928,34 +2972,125 @@
       <c r="G9" s="3">
         <v>71000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="3">
         <v>150</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="3">
         <v>34000</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="20">
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39">
+        <f>AVERAGE(G3:G10)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E20" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E21" s="20">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2963,43 +3098,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3012,180 +3154,189 @@
       <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="10">
         <v>346</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="10">
         <v>27000</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="16">
-        <f>SUBTOTAL(3,C3:C3)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3">
+        <v>98</v>
+      </c>
+      <c r="G4" s="3">
+        <v>71000</v>
+      </c>
+      <c r="H4" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <v>41000</v>
-      </c>
-      <c r="H5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
-        <v>45</v>
-      </c>
+        <f>SUBTOTAL(1,G3:G4)</f>
+        <v>49000</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
       <c r="C6" s="2">
-        <f>SUBTOTAL(3,C5:C5)</f>
-        <v>1</v>
+        <f>SUBTOTAL(3,C3:C4)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3">
+        <v>131</v>
+      </c>
+      <c r="G7" s="3">
+        <v>98000</v>
+      </c>
+      <c r="H7" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3">
+        <v>79</v>
+      </c>
+      <c r="G8" s="3">
+        <v>55000</v>
+      </c>
+      <c r="H8" s="20">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3">
-        <v>39000</v>
-      </c>
-      <c r="H7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUBTOTAL(3,C7:C7)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <v>98000</v>
-      </c>
-      <c r="H9" s="28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
-        <v>47</v>
-      </c>
+        <f>SUBTOTAL(1,G7:G8)</f>
+        <v>76500</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
       <c r="C10" s="2">
-        <f>SUBTOTAL(3,C9:C9)</f>
-        <v>1</v>
+        <f>SUBTOTAL(3,C7:C8)</f>
+        <v>2</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H11" s="28">
+        <v>41000</v>
+      </c>
+      <c r="H11" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUBTOTAL(3,C11:C11)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H12" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3203,114 +3354,99 @@
       <c r="G13" s="3">
         <v>63000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUBTOTAL(3,C13:C13)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="3">
-        <v>98</v>
-      </c>
-      <c r="G15" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H15" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12">
+        <v>150</v>
+      </c>
+      <c r="G14" s="12">
+        <v>34000</v>
+      </c>
+      <c r="H14" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23">
+        <f>SUBTOTAL(1,G11:G14)</f>
+        <v>44250</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22">
+        <f>SUBTOTAL(3,C11:C14)</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="34">
-        <f>SUBTOTAL(3,C15:C15)</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="2:8" ht="14.25" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="20">
-        <v>150</v>
-      </c>
-      <c r="G17" s="20">
-        <v>34000</v>
-      </c>
-      <c r="H17" s="29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="38">
-        <f>SUBTOTAL(3,C17:C17)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="38">
-        <f>SUBTOTAL(3,C3:C17)</f>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <f>SUBTOTAL(1,G3:G14)</f>
+        <v>53500</v>
+      </c>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
+        <f>SUBTOTAL(3,C3:C14)</f>
         <v>8</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
   </sheetData>
+  <sortState ref="B3:H10">
+    <sortCondition descending="1" ref="E3:E10"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H18">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G3&gt;=60000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>